--- a/Phys 230 Lab Reports/Experiment 2/Lab 3 Data.xlsx
+++ b/Phys 230 Lab Reports/Experiment 2/Lab 3 Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arunscape\Downloads\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C20BAB-F6EB-4D4B-AAD8-0D246C02C4A2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5050B-D737-462C-A452-1B067C302F7A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12195" xr2:uid="{EDE4D52B-8752-41DE-AC7F-A6382B95A09F}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12195" xr2:uid="{EDE4D52B-8752-41DE-AC7F-A6382B95A09F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,49 +252,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>97.300851082103975</c:v>
+                  <c:v>194.60170216420795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.084042568419989</c:v>
+                  <c:v>162.16808513683998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.272836892630664</c:v>
+                  <c:v>140.54567378526133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.403449712007372</c:v>
+                  <c:v>122.80689942401474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.996133220319642</c:v>
+                  <c:v>109.99226644063928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.1687183448436</c:v>
+                  <c:v>238.33743668968719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.307265287369674</c:v>
+                  <c:v>198.61453057473935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.066296582387054</c:v>
+                  <c:v>172.13259316477411</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.203560120532373</c:v>
+                  <c:v>150.40712024106475</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.35623210795508</c:v>
+                  <c:v>134.71246421591016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.60418323075629</c:v>
+                  <c:v>275.20836646151258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.67015269229691</c:v>
+                  <c:v>229.34030538459382</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99.38079899999066</c:v>
+                  <c:v>198.76159799998132</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86.837591359215139</c:v>
+                  <c:v>173.67518271843028</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77.776277478253562</c:v>
+                  <c:v>155.55255495650712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,7 +484,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -520,7 +520,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1529,13 +1529,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95C5C72-83CD-43C4-BE4E-1EB1878498F5}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1574,7 +1575,8 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>6.5000000000000002E-2</v>
+        <f>0.065/2</f>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="I2" s="2">
         <f>SQRT(2*A2)/D2</f>
-        <v>97.300851082103975</v>
+        <v>194.60170216420795</v>
       </c>
       <c r="J2" s="2">
         <f>(8*4*PI()*0.0000001*72*B2)/(SQRT(125)*0.33)</f>
@@ -1602,11 +1604,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>7.8E-2</v>
+        <f>0.078/2</f>
+        <v>3.9E-2</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I16" si="0">SQRT(2*A3)/D3</f>
-        <v>81.084042568419989</v>
+        <v>162.16808513683998</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ref="J3:J16" si="1">(8*4*PI()*0.0000001*72*B3)/(SQRT(125)*0.33)</f>
@@ -1624,11 +1627,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09</v>
+        <f>0.09/2</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>70.272836892630664</v>
+        <v>140.54567378526133</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="1"/>
@@ -1646,11 +1650,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.10299999999999999</v>
+        <f>0.103/2</f>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>61.403449712007372</v>
+        <v>122.80689942401474</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="1"/>
@@ -1668,11 +1673,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>0.115</v>
+        <f>0.115/2</f>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>54.996133220319642</v>
+        <v>109.99226644063928</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="1"/>
@@ -1690,11 +1696,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>6.5000000000000002E-2</v>
+        <f>0.065/2</f>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>119.1687183448436</v>
+        <v>238.33743668968719</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
@@ -1712,11 +1719,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>7.8E-2</v>
+        <f>0.078/2</f>
+        <v>3.9E-2</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>99.307265287369674</v>
+        <v>198.61453057473935</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
@@ -1734,11 +1742,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>0.09</v>
+        <f>0.09/2</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>86.066296582387054</v>
+        <v>172.13259316477411</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
@@ -1756,11 +1765,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.10299999999999999</v>
+        <f>0.103/2</f>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>75.203560120532373</v>
+        <v>150.40712024106475</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
@@ -1778,11 +1788,12 @@
         <v>5</v>
       </c>
       <c r="D11" s="1">
-        <v>0.115</v>
+        <f>0.115/2</f>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>67.35623210795508</v>
+        <v>134.71246421591016</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
@@ -1800,11 +1811,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>6.5000000000000002E-2</v>
+        <f>0.065/2</f>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>137.60418323075629</v>
+        <v>275.20836646151258</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="1"/>
@@ -1822,11 +1834,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>7.8E-2</v>
+        <f>0.078/2</f>
+        <v>3.9E-2</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>114.67015269229691</v>
+        <v>229.34030538459382</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
@@ -1844,11 +1857,12 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>0.09</v>
+        <f>0.09/2</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>99.38079899999066</v>
+        <v>198.76159799998132</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="1"/>
@@ -1866,11 +1880,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>0.10299999999999999</v>
+        <f>0.103/2</f>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>86.837591359215139</v>
+        <v>173.67518271843028</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
@@ -1888,11 +1903,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>0.115</v>
+        <f>0.115/2</f>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>77.776277478253562</v>
+        <v>155.55255495650712</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="1"/>
@@ -1900,35 +1916,35 @@
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="array" ref="C20:D23">LINEST(J2:J16,I2:I16,1,TRUE)</f>
-        <v>4.8534511876822015E-6</v>
-      </c>
-      <c r="D20">
+        <v>2.4267255938411007E-6</v>
+      </c>
+      <c r="D20" s="2">
         <v>3.9964263179817375E-5</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>7.0129954914179259E-8</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2">
+        <v>3.506497745708963E-8</v>
+      </c>
+      <c r="D21" s="2">
         <v>6.4016750400709578E-6</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.99729310160659812</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>6.0086072069017661E-6</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23">
+      <c r="C23" s="2">
         <v>4789.5445032171865</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>13</v>
       </c>
     </row>
